--- a/Книга 2.xlsx
+++ b/Книга 2.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Технарь\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Основы программирования\GitHub Project\Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16140" windowHeight="4500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>x</t>
   </si>
@@ -4838,7 +4839,1283 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зонтик</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.611111111111111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.944444444444445</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.944444444444445</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.611111111111111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.2777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C33C-43B8-80B9-B7007F2640BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C33C-43B8-80B9-B7007F2640BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C33C-43B8-80B9-B7007F2640BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C33C-43B8-80B9-B7007F2640BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="8">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C33C-43B8-80B9-B7007F2640BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$G$2:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="8">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C33C-43B8-80B9-B7007F2640BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="415514840"/>
+        <c:axId val="415505328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="415514840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415505328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="415505328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415514840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5394,6 +6671,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5412,6 +7205,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180126</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>146741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>461160</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60733</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5694,7 +7522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
@@ -7487,4 +9315,416 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-12</v>
+      </c>
+      <c r="B2">
+        <f>(-1/18*POWER(A2,2)+12)</f>
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>(-1/8*(POWER(A2+8,2))+6)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-11</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B27" si="0">(-1/18*POWER(A3,2)+12)</f>
+        <v>5.2777777777777786</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="1">(-1/8*(POWER(A3+8,2))+6)</f>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-10</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>6.4444444444444446</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-9</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-8</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>9.2777777777777786</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>10.611111111111111</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="C10">
+        <f>(-1/8*POWER(A10,2)+6)</f>
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f>(2*POWER(A10+3,2)-9)</f>
+        <v>-7</v>
+      </c>
+      <c r="G10">
+        <f>(1.5*POWER(A10+3,2)-10)</f>
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-3</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C18" si="2">(-1/8*POWER(A11,2)+6)</f>
+        <v>4.875</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F14" si="3">(2*POWER(A11+3,2)-9)</f>
+        <v>-9</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G14" si="4">(1.5*POWER(A11+3,2)-10)</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-2</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>11.777777777777779</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>11.944444444444445</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>5.875</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>11.944444444444445</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>11.777777777777779</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f>(-1/8*POWER(A18-8,2)+6)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>10.611111111111111</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E26" si="5">(-1/8*POWER(A19-8,2)+6)</f>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>9.2777777777777786</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>6.4444444444444446</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>5.2777777777777786</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Книга 2.xlsx
+++ b/Книга 2.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16140" windowHeight="4500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16140" windowHeight="4500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>x</t>
   </si>
@@ -52,6 +53,12 @@
   </si>
   <si>
     <t>y8</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -4772,7 +4779,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6075,6 +6081,415 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.40000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.30000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.20000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.10000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.3877787807814457E-16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9999999999999867E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.69999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99999999999999978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0000000000000089E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7777898331617076E-32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9999999999999923E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47999999999999976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.74999999999999967</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4699999999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4299999999999988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9999999999999987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21F3-4732-817D-F1091EB213B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="333873808"/>
+        <c:axId val="333878728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="333873808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333878728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="333878728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333873808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6116,6 +6531,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7187,6 +7642,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7236,6 +8207,41 @@
       <xdr:colOff>461160</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>60733</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9321,7 +10327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="101" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -9368,7 +10374,7 @@
         <v>-11</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B27" si="0">(-1/18*POWER(A3,2)+12)</f>
+        <f t="shared" ref="B3:B26" si="0">(-1/18*POWER(A3,2)+12)</f>
         <v>5.2777777777777786</v>
       </c>
       <c r="D3">
@@ -9721,6 +10727,247 @@
       <c r="E26">
         <f t="shared" si="5"/>
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <f>(3*POWER(A3,2))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+$B$1</f>
+        <v>-0.9</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B23" si="0">(3*POWER(A4,2))</f>
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ref="A5:A23" si="1">A4+$B$1</f>
+        <v>-0.8</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.9200000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.4700000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.0800000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>-0.50000000000000011</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.75000000000000033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>-0.40000000000000013</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.48000000000000032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>-0.30000000000000016</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.2700000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000015</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>-0.10000000000000014</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000089E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>-1.3877787807814457E-16</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>5.7777898331617076E-32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>A13+$B$1</f>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2.9999999999999923E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999987</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.11999999999999986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>0.29999999999999988</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.2699999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.47999999999999976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.74999999999999967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1.0799999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>0.69999999999999984</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1.4699999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1.919999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>0.8999999999999998</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>2.4299999999999988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2.9999999999999987</v>
       </c>
     </row>
   </sheetData>

--- a/Книга 2.xlsx
+++ b/Книга 2.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Основы программирования\GitHub Project\Project-1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16140" windowHeight="4500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16140" windowHeight="4500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Накладная" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>x</t>
   </si>
@@ -60,12 +58,145 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>ООО Аленький цветочек</t>
+  </si>
+  <si>
+    <t>Прайс лист на</t>
+  </si>
+  <si>
+    <t>Курс $</t>
+  </si>
+  <si>
+    <t>№ поз</t>
+  </si>
+  <si>
+    <t>Наим. Товара</t>
+  </si>
+  <si>
+    <t>Палочка волшебная</t>
+  </si>
+  <si>
+    <t>Зелье приворотное</t>
+  </si>
+  <si>
+    <t>Вода живая</t>
+  </si>
+  <si>
+    <t>Вода мертвая</t>
+  </si>
+  <si>
+    <t>Ковер-самолет</t>
+  </si>
+  <si>
+    <t>Скатерть-самобранка</t>
+  </si>
+  <si>
+    <t>Сапоги-скороходы</t>
+  </si>
+  <si>
+    <t>Цена ($)</t>
+  </si>
+  <si>
+    <t>Цена (руб)</t>
+  </si>
+  <si>
+    <t>Курс долара:</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>Англия</t>
+  </si>
+  <si>
+    <t>Болгария</t>
+  </si>
+  <si>
+    <t>Бельция</t>
+  </si>
+  <si>
+    <t>Турция</t>
+  </si>
+  <si>
+    <t>Египет</t>
+  </si>
+  <si>
+    <t>Цена в долларах</t>
+  </si>
+  <si>
+    <t>Цена в рублях</t>
+  </si>
+  <si>
+    <t>Наименование товара</t>
+  </si>
+  <si>
+    <t>Цена в $</t>
+  </si>
+  <si>
+    <t>Цена в руб.</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Сумма в руб.</t>
+  </si>
+  <si>
+    <t>Кофеварка</t>
+  </si>
+  <si>
+    <t>Холодильник</t>
+  </si>
+  <si>
+    <t>Плеер</t>
+  </si>
+  <si>
+    <t>Тостер</t>
+  </si>
+  <si>
+    <t>Телевизор</t>
+  </si>
+  <si>
+    <t>СВЧ печь</t>
+  </si>
+  <si>
+    <t>Утюг</t>
+  </si>
+  <si>
+    <t>Фен</t>
+  </si>
+  <si>
+    <t>Магнитофон</t>
+  </si>
+  <si>
+    <t>Чайник</t>
+  </si>
+  <si>
+    <t>Курс доллара</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00\ [$₽-419]"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +223,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -115,7 +271,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -171,26 +327,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -934,7 +1070,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3748-47F0-89AB-4A1EEA5FCD11}"/>
             </c:ext>
@@ -1568,7 +1704,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3748-47F0-89AB-4A1EEA5FCD11}"/>
             </c:ext>
@@ -2085,7 +2221,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3748-47F0-89AB-4A1EEA5FCD11}"/>
             </c:ext>
@@ -2608,7 +2744,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3748-47F0-89AB-4A1EEA5FCD11}"/>
             </c:ext>
@@ -3164,7 +3300,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-3748-47F0-89AB-4A1EEA5FCD11}"/>
             </c:ext>
@@ -3648,7 +3784,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-3748-47F0-89AB-4A1EEA5FCD11}"/>
             </c:ext>
@@ -4138,7 +4274,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-3748-47F0-89AB-4A1EEA5FCD11}"/>
             </c:ext>
@@ -4628,7 +4764,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-3748-47F0-89AB-4A1EEA5FCD11}"/>
             </c:ext>
@@ -4642,11 +4778,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="426184368"/>
-        <c:axId val="426185024"/>
+        <c:axId val="139572352"/>
+        <c:axId val="139574272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="426184368"/>
+        <c:axId val="139572352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4703,12 +4839,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426185024"/>
+        <c:crossAx val="139574272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="426185024"/>
+        <c:axId val="139574272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4765,7 +4901,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426184368"/>
+        <c:crossAx val="139572352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4779,6 +4915,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4846,7 +4983,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4894,26 +5031,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5117,7 +5234,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C33C-43B8-80B9-B7007F2640BF}"/>
             </c:ext>
@@ -5271,7 +5388,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C33C-43B8-80B9-B7007F2640BF}"/>
             </c:ext>
@@ -5425,7 +5542,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C33C-43B8-80B9-B7007F2640BF}"/>
             </c:ext>
@@ -5579,7 +5696,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C33C-43B8-80B9-B7007F2640BF}"/>
             </c:ext>
@@ -5721,7 +5838,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C33C-43B8-80B9-B7007F2640BF}"/>
             </c:ext>
@@ -5863,7 +5980,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C33C-43B8-80B9-B7007F2640BF}"/>
             </c:ext>
@@ -5877,11 +5994,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415514840"/>
-        <c:axId val="415505328"/>
+        <c:axId val="140006912"/>
+        <c:axId val="140008832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415514840"/>
+        <c:axId val="140006912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5938,12 +6055,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415505328"/>
+        <c:crossAx val="140008832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415505328"/>
+        <c:axId val="140008832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6000,7 +6117,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415514840"/>
+        <c:crossAx val="140006912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6082,7 +6199,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6304,7 +6421,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-21F3-4732-817D-F1091EB213B2}"/>
             </c:ext>
@@ -6318,11 +6435,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="333873808"/>
-        <c:axId val="333878728"/>
+        <c:axId val="140063488"/>
+        <c:axId val="140065408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="333873808"/>
+        <c:axId val="140063488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6379,12 +6496,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333878728"/>
+        <c:crossAx val="140065408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="333878728"/>
+        <c:axId val="140065408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6441,7 +6558,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333873808"/>
+        <c:crossAx val="140063488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8518,7 +8635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10739,8 +10856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10974,4 +11091,538 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3">
+        <f ca="1">TODAY()</f>
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9">
+        <v>300</v>
+      </c>
+      <c r="D5" s="8">
+        <f>C5*$C$3</f>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9">
+        <v>100</v>
+      </c>
+      <c r="D6" s="8">
+        <f>C6*$C$3</f>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8">
+        <f>C7*$C$3</f>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9">
+        <v>400</v>
+      </c>
+      <c r="D8" s="5">
+        <f>C8*$C$3</f>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1200</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9*$C$3</f>
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9">
+        <v>700</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10*$C$3</f>
+        <v>22050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9">
+        <v>200</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11*$C$3</f>
+        <v>6300</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="11">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1350</v>
+      </c>
+      <c r="C3" s="5">
+        <f>B3*$B$1</f>
+        <v>91125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="10">
+        <v>450</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C7" si="0">B4*$B$1</f>
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1180</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>79650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="10">
+        <v>780</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>52650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10">
+        <v>560</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>37800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10">
+        <v>70</v>
+      </c>
+      <c r="D2" s="5">
+        <f>C2*$B$13</f>
+        <v>2359</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <f>D2*E2</f>
+        <v>23590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="10">
+        <v>900</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D11" si="0">C3*$B$13</f>
+        <v>30330.000000000004</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <f>D3*E3</f>
+        <v>121320.00000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="10">
+        <v>60</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>2022.0000000000002</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <f>D4*E4</f>
+        <v>6066.0000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="10">
+        <v>150</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>5055</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <f>D5*E5</f>
+        <v>15165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="10">
+        <v>600</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>20220</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <f>D6*E6</f>
+        <v>40440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="10">
+        <v>300</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>10110</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <f>D7*E7</f>
+        <v>30330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="10">
+        <v>70</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>2359</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5">
+        <f>D8*E8</f>
+        <v>25949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10">
+        <v>65</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>2190.5</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5">
+        <f>D9*E9</f>
+        <v>19714.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="10">
+        <v>400</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>13480.000000000002</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <f>D10*E10</f>
+        <v>67400.000000000015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="10">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>1348</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5">
+        <f>D11*E11</f>
+        <v>16176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>